--- a/data_hongkong/hongkong_parainfluenza.xlsx
+++ b/data_hongkong/hongkong_parainfluenza.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="385">
   <si>
     <t>Week number</t>
   </si>
@@ -1173,6 +1173,9 @@
   </si>
   <si>
     <t>05/05 -11/05</t>
+  </si>
+  <si>
+    <t>18/08 - 24/08</t>
   </si>
 </sst>
 </file>
@@ -6379,6 +6382,566 @@
         <v>0.15</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="3">
+        <v>7711.0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F33" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="H33" s="3">
+        <v>68.0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="J33" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8051.0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H34" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="J34" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7303.0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="H35" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7208.0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="F36" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="H36" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="J36" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7458.0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F37" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H37" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J37" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="3">
+        <v>7061.0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F38" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="H38" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="J38" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6882.0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H39" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6890.0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="H40" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="J40" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6992.0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F41" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H41" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="J41" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6707.0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F42" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H42" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="J42" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6448.0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F43" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="H43" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J43" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6836.0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H44" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J44" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6430.0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="H45" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J45" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6688.0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H46" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="J46" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6674.0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F47" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H47" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J47" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="3">
+        <v>7007.0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="F48" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="H48" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>39.0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
